--- a/Souq/src/price/Souq/excel_52_pulseiras.xlsx
+++ b/Souq/src/price/Souq/excel_52_pulseiras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,1285 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>PULSEIRA SQUARE</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-square-02-09-05-724-017.html</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>118,00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>PULSEIRA SQUARE</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-square-02-09-05-724-011.html</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>118,00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>PULSEIRA LORIE</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-lorie-02-09-05-690-017.html</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>168,00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>PULSEIRA UMA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-uma-02-09-05-689-011.html</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>PULSEIRA ELENICE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-elenice-02-09-05-681-029.html</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>PULSEIRA ELIDA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-elida-02-09-05-680-008.html</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>68,00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>PULSEIRA ROSALI</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-rosali-02-09-05-726-035.html</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>218,00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PULSEIRA ELVIRA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-elvira-02-09-05-683-011.html</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>PULSEIRA MERCIA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-mercia-02-09-05-678-002.html</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>98,00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>PULSEIRA ADALGISA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-adalgisa-02-09-05-675-011.html</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>PULSEIRA ASHANTI</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-ashanti-02-09-05-673-011.html</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>PULSEIRA BINTU</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-bintu-02-09-05-712-002.html</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>88,00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>PULSEIRA BINTU</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-bintu-02-09-05-712-008.html</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>88,00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>PULSEIRA CLAUDETE</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-claudete-02-09-05-676-017.html</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>PULSEIRA INARA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-inara-02-09-05-692-011.html</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>PULSEIRA JADE</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-jade-02-09-05-715-006.html</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>PULSEIRA JUMA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-juma-02-09-05-713-008.html</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>78,00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>PULSEIRA KIKI</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-kiki-02-09-05-674-011.html</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>138,00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>PULSEIRA LATOYA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-latoya-02-09-05-693-011.html</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>PULSEIRA MARILIA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-marilia-02-09-05-687-008.html</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>78,00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>PULSEIRA NEUSA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-neusa-02-09-05-679-003.html</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>98,00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>PULSEIRA NIARA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-niara-02-09-05-695-011.html</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>PULSEIRA NITA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-nita-02-09-05-700-004.html</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>78,00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>PULSEIRA NITA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-nita-02-09-05-700-005.html</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>78,00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>PULSEIRA NITA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-nita-02-09-05-700-006.html</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>78,00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>PULSEIRA NITA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-nita-02-09-05-700-016.html</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>78,00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>PULSEIRA ODETE</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-odete-02-09-05-716-011.html</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>78,00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>PULSEIRA TULA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-tula-02-09-05-677-011.html</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>PULSEIRA ZILAH</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-zilah-02-09-05-688-011.html</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>118,00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>PULSEIRA ZILAH</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-zilah-02-09-05-688-017.html</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>118,00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>PULSEIRA ARITANA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-aritana-02-09-05-660-054.html</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>PULSEIRA KAILUA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-kailua-02-09-05-564-006.html</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>68,00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>PULSEIRA KAILUA</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-kailua-02-09-05-564-029.html</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>68,00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>PULSEIRA LANIKAI</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-lanikai-02-09-05-565-002.html</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>68,00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>PULSEIRA LANIKAI</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-lanikai-02-09-05-565-003.html</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>68,00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>PULSEIRA LEAH</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-leah-02-09-05-598-011.html</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>PULSEIRA REBECCA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-rebecca-02-09-05-597-002.html</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>118,00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>PULSEIRA REBECCA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-rebecca-02-09-05-597-006.html</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>PULSEIRAS</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/pulseiras.html?p=1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>PULSEIRA VADELLA</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-vadella-02-09-05-567-003.html</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>68,00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
